--- a/library/PHPExcel-1.8/templates/estrella.xlsx
+++ b/library/PHPExcel-1.8/templates/estrella.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Camilo-Pc\Google Drive\Documentos Camilo\proyecto ivan zurita\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\livintugeda\library\PHPExcel-1.8\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -24,9 +24,6 @@
     <t>Siempre</t>
   </si>
   <si>
-    <t>San Andres</t>
-  </si>
-  <si>
     <t>Providencia y Santa Catalina</t>
   </si>
   <si>
@@ -58,6 +55,9 @@
   </si>
   <si>
     <t>Subpregunta:</t>
+  </si>
+  <si>
+    <t>San Andrés</t>
   </si>
 </sst>
 </file>
@@ -149,24 +149,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -451,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,333 +462,333 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="6"/>
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4" t="s">
-        <v>4</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="4"/>
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
     </row>
     <row r="7" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4" t="s">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="4"/>
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="D8" s="4"/>
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6">
-        <v>-18</v>
-      </c>
+      <c r="B9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4"/>
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="11"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4"/>
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="11"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="B11" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="6"/>
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="11"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="C12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="6"/>
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="11"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6" t="s">
+      <c r="B13" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="D13" s="4"/>
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="11"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6">
-        <v>55</v>
-      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="4"/>
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8">
+      <c r="B15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="6">
         <v>-18</v>
       </c>
+      <c r="D15" s="6"/>
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="12"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8" t="s">
-        <v>5</v>
-      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="6"/>
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="12"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8" t="s">
-        <v>6</v>
-      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="6"/>
       <c r="E17"/>
       <c r="F17"/>
       <c r="G17"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="12"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8" t="s">
-        <v>7</v>
-      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="6"/>
       <c r="E18"/>
       <c r="F18"/>
       <c r="G18"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="12"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="6"/>
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="12"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8">
+      <c r="B20" s="11"/>
+      <c r="C20" s="6">
         <v>55</v>
       </c>
+      <c r="D20" s="6"/>
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6">
+      <c r="B21" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="7">
         <v>-18</v>
       </c>
+      <c r="D21" s="7"/>
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="11"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="7"/>
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="11"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="7"/>
       <c r="E23"/>
       <c r="F23"/>
       <c r="G23"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="11"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="7"/>
       <c r="E24"/>
       <c r="F24"/>
       <c r="G24"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="11"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="7"/>
       <c r="E25"/>
       <c r="F25"/>
       <c r="G25"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="11"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6">
+      <c r="B26" s="13"/>
+      <c r="C26" s="7">
         <v>55</v>
       </c>
+      <c r="D26" s="7"/>
       <c r="E26"/>
       <c r="F26"/>
       <c r="G26"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="B27" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="6">
+        <v>-18</v>
+      </c>
+      <c r="D27" s="6"/>
       <c r="E27"/>
       <c r="F27"/>
       <c r="G27"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="13"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="6"/>
       <c r="E28"/>
       <c r="F28"/>
       <c r="G28"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="6"/>
       <c r="E29"/>
       <c r="F29"/>
       <c r="G29"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="11"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="C30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="6"/>
       <c r="E30"/>
       <c r="F30"/>
       <c r="G30"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="6"/>
       <c r="E31"/>
       <c r="F31"/>
       <c r="G31"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="13"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="6">
+        <v>55</v>
+      </c>
+      <c r="D32" s="6"/>
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
-    <mergeCell ref="B9:B14"/>
     <mergeCell ref="B15:B20"/>
     <mergeCell ref="B21:B26"/>
+    <mergeCell ref="B27:B32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
